--- a/Mifos Automation Excels/Client/3117-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3117-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,14 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -316,6 +324,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,10 +771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +788,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -794,9 +808,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -806,15 +820,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="15">
-        <v>1678.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1581.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>196.39</v>
+        <v>685.07</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -826,15 +840,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <v>196.39</v>
+        <v>685.07</v>
       </c>
       <c r="F3" s="12">
-        <v>96.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B4" s="12">
         <v>100</v>
@@ -846,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -871,6 +885,36 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -880,10 +924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +1010,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12">
@@ -997,13 +1041,13 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>836.76</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="15">
-        <v>4163.24</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="12">
-        <v>50.96</v>
+        <v>101.92</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -1031,52 +1075,71 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>28</v>
+      </c>
       <c r="C4" s="13">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="F4" s="12">
+        <v>795.67</v>
+      </c>
+      <c r="G4" s="15">
+        <v>8418.5300000000007</v>
+      </c>
+      <c r="H4" s="12">
+        <v>92.05</v>
+      </c>
       <c r="I4" s="12">
-        <v>100</v>
-      </c>
-      <c r="J4" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
       <c r="K4" s="12">
-        <v>100</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="12">
-        <v>100</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="P4" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>887.72</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="12">
         <v>31</v>
       </c>
       <c r="C5" s="13">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
-        <v>836.76</v>
+        <v>785.8</v>
       </c>
       <c r="G5" s="15">
-        <v>4163.24</v>
+        <v>7632.73</v>
       </c>
       <c r="H5" s="12">
-        <v>50.96</v>
+        <v>101.92</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1105,24 +1168,24 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="13">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12">
-        <v>841.69</v>
+        <v>812.44</v>
       </c>
       <c r="G6" s="15">
-        <v>3321.55</v>
+        <v>6820.29</v>
       </c>
       <c r="H6" s="12">
-        <v>46.03</v>
+        <v>75.28</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1151,24 +1214,24 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12">
         <v>31</v>
       </c>
       <c r="C7" s="13">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12">
-        <v>836.76</v>
+        <v>818.21</v>
       </c>
       <c r="G7" s="15">
-        <v>2484.79</v>
+        <v>6002.08</v>
       </c>
       <c r="H7" s="12">
-        <v>50.96</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -1197,24 +1260,24 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12">
         <v>30</v>
       </c>
       <c r="C8" s="13">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12">
-        <v>863.21</v>
+        <v>828.52</v>
       </c>
       <c r="G8" s="15">
-        <v>1621.58</v>
+        <v>5173.5600000000004</v>
       </c>
       <c r="H8" s="12">
-        <v>24.51</v>
+        <v>59.2</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1243,24 +1306,24 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12">
         <v>31</v>
       </c>
       <c r="C9" s="13">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12">
-        <v>871.19</v>
-      </c>
-      <c r="G9" s="12">
-        <v>750.39</v>
+        <v>834.99</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4338.57</v>
       </c>
       <c r="H9" s="12">
-        <v>16.53</v>
+        <v>52.73</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -1289,24 +1352,24 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="13">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12">
-        <v>750.39</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
+        <v>843.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>3495.07</v>
       </c>
       <c r="H10" s="12">
-        <v>7.4</v>
+        <v>44.22</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
@@ -1315,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <v>757.79</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -1330,7 +1393,191 @@
         <v>0</v>
       </c>
       <c r="P10" s="12">
-        <v>757.79</v>
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>853.25</v>
+      </c>
+      <c r="G11" s="15">
+        <v>2641.82</v>
+      </c>
+      <c r="H11" s="12">
+        <v>34.47</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>31</v>
+      </c>
+      <c r="C12" s="13">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>860.8</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1781.02</v>
+      </c>
+      <c r="H12" s="12">
+        <v>26.92</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>870.15</v>
+      </c>
+      <c r="G13" s="12">
+        <v>910.87</v>
+      </c>
+      <c r="H13" s="12">
+        <v>17.57</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>31</v>
+      </c>
+      <c r="C14" s="13">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
+        <v>910.87</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>920.15</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>920.15</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1591,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
@@ -1442,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -1457,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>

--- a/Mifos Automation Excels/Client/3117-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3117-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -634,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,12 +945,13 @@
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,17 +991,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13">
@@ -1027,8 +1029,9 @@
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1064,17 +1067,18 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="12">
         <v>0</v>
       </c>
       <c r="P3" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1110,17 +1114,18 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="12">
         <v>0</v>
       </c>
       <c r="P4" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1156,17 +1161,18 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="12">
         <v>0</v>
       </c>
       <c r="P5" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1202,17 +1208,18 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="12">
         <v>0</v>
       </c>
       <c r="P6" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1248,17 +1255,18 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="12">
         <v>0</v>
       </c>
       <c r="P7" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1294,17 +1302,18 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1340,17 +1349,18 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="12">
         <v>0</v>
       </c>
       <c r="P9" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1386,17 +1396,18 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1432,17 +1443,18 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="12">
         <v>0</v>
       </c>
       <c r="P11" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1478,17 +1490,18 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
+      <c r="N12" s="12"/>
       <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1524,17 +1537,18 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1570,13 +1584,14 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
+      <c r="N14" s="12"/>
       <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
         <v>920.15</v>
       </c>
     </row>
